--- a/Enose/data_file/test/pca2_2.xlsx
+++ b/Enose/data_file/test/pca2_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\data_file\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B94024-8BB1-471A-8DC9-A86E707A7AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB11A5C-5214-473B-9098-0FA292E5139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Target</t>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -38,17 +51,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -393,60 +407,2467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>-0.72536544569446815</v>
       </c>
       <c r="B2">
+        <v>0.38893821554615621</v>
+      </c>
+      <c r="C2">
         <v>-0.72536544569446815</v>
       </c>
-      <c r="C2">
-        <v>0.38893821554615621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>-0.72536544569446815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>-0.92881946607341936</v>
       </c>
       <c r="B3">
+        <v>0.27423557892289813</v>
+      </c>
+      <c r="C3">
+        <v>-0.92881946607341936</v>
+      </c>
+      <c r="D3">
+        <v>-0.92881946607341936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-0.88412447742188893</v>
+      </c>
+      <c r="B4">
+        <v>0.2103073799439229</v>
+      </c>
+      <c r="C4">
+        <v>-0.88412447742188893</v>
+      </c>
+      <c r="D4">
+        <v>-0.88412447742188893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-0.94566902863729385</v>
+      </c>
+      <c r="B5">
+        <v>0.1441011275826907</v>
+      </c>
+      <c r="C5">
+        <v>-0.94566902863729385</v>
+      </c>
+      <c r="D5">
+        <v>-0.94566902863729385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.91199424162951848</v>
+      </c>
+      <c r="B6">
+        <v>-1.6069845412594728E-2</v>
+      </c>
+      <c r="C6">
+        <v>-0.91199424162951848</v>
+      </c>
+      <c r="D6">
+        <v>-0.91199424162951848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.9075750493150142</v>
+      </c>
+      <c r="B7">
+        <v>-0.18196330400817501</v>
+      </c>
+      <c r="C7">
+        <v>-0.9075750493150142</v>
+      </c>
+      <c r="D7">
+        <v>-0.9075750493150142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-0.85498151795217836</v>
+      </c>
+      <c r="B8">
+        <v>-0.17255421413140851</v>
+      </c>
+      <c r="C8">
+        <v>-0.85498151795217836</v>
+      </c>
+      <c r="D8">
+        <v>-0.85498151795217836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="B9">
+        <v>-0.21021766948770179</v>
+      </c>
+      <c r="C9">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="D9">
+        <v>-0.89124493448194519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="B10">
+        <v>-0.21021766948770179</v>
+      </c>
+      <c r="C10">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="D10">
+        <v>-0.89124493448194519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="B11">
+        <v>-0.21021766948770179</v>
+      </c>
+      <c r="C11">
+        <v>-0.89124493448194519</v>
+      </c>
+      <c r="D11">
+        <v>-0.89124493448194519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-1.288029145237785</v>
+      </c>
+      <c r="B12">
+        <v>-0.51661175661200776</v>
+      </c>
+      <c r="C12">
+        <v>-1.288029145237785</v>
+      </c>
+      <c r="D12">
+        <v>-1.288029145237785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-1.249380666835727</v>
+      </c>
+      <c r="B13">
+        <v>-0.63843025968933043</v>
+      </c>
+      <c r="C13">
+        <v>-1.249380666835727</v>
+      </c>
+      <c r="D13">
+        <v>-1.249380666835727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-1.226768727394298</v>
+      </c>
+      <c r="B14">
+        <v>-0.5839692964384221</v>
+      </c>
+      <c r="C14">
+        <v>-1.226768727394298</v>
+      </c>
+      <c r="D14">
+        <v>-1.226768727394298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1.1661998215385201</v>
+      </c>
+      <c r="B15">
+        <v>-0.57564292730227895</v>
+      </c>
+      <c r="C15">
+        <v>-1.1661998215385201</v>
+      </c>
+      <c r="D15">
+        <v>-1.1661998215385201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-1.2215914535251819</v>
+      </c>
+      <c r="B16">
+        <v>-0.63337312126061351</v>
+      </c>
+      <c r="C16">
+        <v>-1.2215914535251819</v>
+      </c>
+      <c r="D16">
+        <v>-1.2215914535251819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1.3203323767807149</v>
+      </c>
+      <c r="B17">
+        <v>-0.68134523287706528</v>
+      </c>
+      <c r="C17">
+        <v>-1.3203323767807149</v>
+      </c>
+      <c r="D17">
+        <v>-1.3203323767807149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-1.2316341522787231</v>
+      </c>
+      <c r="B18">
+        <v>-0.91329266607547566</v>
+      </c>
+      <c r="C18">
+        <v>-1.2316341522787231</v>
+      </c>
+      <c r="D18">
+        <v>-1.2316341522787231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-1.264773652698123</v>
+      </c>
+      <c r="B19">
+        <v>-0.82223694905583145</v>
+      </c>
+      <c r="C19">
+        <v>-1.264773652698123</v>
+      </c>
+      <c r="D19">
+        <v>-1.264773652698123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-1.2274081866611251</v>
+      </c>
+      <c r="B20">
+        <v>-1.134247152893447</v>
+      </c>
+      <c r="C20">
+        <v>-1.2274081866611251</v>
+      </c>
+      <c r="D20">
+        <v>-1.2274081866611251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="B21">
+        <v>-1.138145920816241</v>
+      </c>
+      <c r="C21">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="D21">
+        <v>-1.228859108111084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="B22">
+        <v>-1.138145920816241</v>
+      </c>
+      <c r="C22">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="D22">
+        <v>-1.228859108111084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="B23">
+        <v>-1.138145920816241</v>
+      </c>
+      <c r="C23">
+        <v>-1.228859108111084</v>
+      </c>
+      <c r="D23">
+        <v>-1.228859108111084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-1.206159250015312</v>
+      </c>
+      <c r="B24">
+        <v>-1.266925243870878</v>
+      </c>
+      <c r="C24">
+        <v>-1.206159250015312</v>
+      </c>
+      <c r="D24">
+        <v>-1.206159250015312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="B25">
+        <v>-1.250914789628206</v>
+      </c>
+      <c r="C25">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="D25">
+        <v>-1.239279366373889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="B26">
+        <v>-1.250914789628206</v>
+      </c>
+      <c r="C26">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="D26">
+        <v>-1.239279366373889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-1.2880745157315721</v>
+      </c>
+      <c r="B27">
+        <v>-1.276735375733961</v>
+      </c>
+      <c r="C27">
+        <v>-1.2880745157315721</v>
+      </c>
+      <c r="D27">
+        <v>-1.2880745157315721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="B28">
+        <v>-1.250914789628206</v>
+      </c>
+      <c r="C28">
+        <v>-1.239279366373889</v>
+      </c>
+      <c r="D28">
+        <v>-1.239279366373889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1.4446830163166691</v>
+      </c>
+      <c r="B29">
+        <v>-1.326705700231569</v>
+      </c>
+      <c r="C29">
+        <v>-1.4446830163166691</v>
+      </c>
+      <c r="D29">
+        <v>-1.4446830163166691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-1.441654795068499</v>
+      </c>
+      <c r="B30">
+        <v>-1.4951272691431949</v>
+      </c>
+      <c r="C30">
+        <v>-1.441654795068499</v>
+      </c>
+      <c r="D30">
+        <v>-1.441654795068499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-0.3079731629984509</v>
+      </c>
+      <c r="B31">
+        <v>6.6869934461377636E-2</v>
+      </c>
+      <c r="C31">
+        <v>-0.3079731629984509</v>
+      </c>
+      <c r="D31">
+        <v>-0.3079731629984509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-0.53258798653805284</v>
+      </c>
+      <c r="B32">
+        <v>4.686399894216934E-3</v>
+      </c>
+      <c r="C32">
+        <v>-0.53258798653805284</v>
+      </c>
+      <c r="D32">
+        <v>-0.53258798653805284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-0.59533031545982529</v>
+      </c>
+      <c r="B33">
+        <v>-1.3062190661351419E-2</v>
+      </c>
+      <c r="C33">
+        <v>-0.59533031545982529</v>
+      </c>
+      <c r="D33">
+        <v>-0.59533031545982529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-0.56955852154445052</v>
+      </c>
+      <c r="B34">
+        <v>-8.5404532252205921E-3</v>
+      </c>
+      <c r="C34">
+        <v>-0.56955852154445052</v>
+      </c>
+      <c r="D34">
+        <v>-0.56955852154445052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-0.78134808857878246</v>
+      </c>
+      <c r="B35">
+        <v>-7.5877547204005538E-2</v>
+      </c>
+      <c r="C35">
+        <v>-0.78134808857878246</v>
+      </c>
+      <c r="D35">
+        <v>-0.78134808857878246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-0.71836435581464797</v>
+      </c>
+      <c r="B36">
+        <v>-0.17194246551141071</v>
+      </c>
+      <c r="C36">
+        <v>-0.71836435581464797</v>
+      </c>
+      <c r="D36">
+        <v>-0.71836435581464797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-0.70295424427607878</v>
+      </c>
+      <c r="B37">
+        <v>-1.6512125507456839E-2</v>
+      </c>
+      <c r="C37">
+        <v>-0.70295424427607878</v>
+      </c>
+      <c r="D37">
+        <v>-0.70295424427607878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-0.64559738081877538</v>
+      </c>
+      <c r="B38">
+        <v>-3.0715483240158489E-2</v>
+      </c>
+      <c r="C38">
+        <v>-0.64559738081877538</v>
+      </c>
+      <c r="D38">
+        <v>-0.64559738081877538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-0.63560576572014038</v>
+      </c>
+      <c r="B39">
+        <v>-4.6823656623364539E-2</v>
+      </c>
+      <c r="C39">
+        <v>-0.63560576572014038</v>
+      </c>
+      <c r="D39">
+        <v>-0.63560576572014038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-0.59863523071374258</v>
+      </c>
+      <c r="B40">
+        <v>-3.3596803503926957E-2</v>
+      </c>
+      <c r="C40">
+        <v>-0.59863523071374258</v>
+      </c>
+      <c r="D40">
+        <v>-0.59863523071374258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-0.63560576572014038</v>
+      </c>
+      <c r="B41">
+        <v>-4.6823656623364539E-2</v>
+      </c>
+      <c r="C41">
+        <v>-0.63560576572014038</v>
+      </c>
+      <c r="D41">
+        <v>-0.63560576572014038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-0.59863523071374258</v>
+      </c>
+      <c r="B42">
+        <v>-3.3596803503926957E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.59863523071374258</v>
+      </c>
+      <c r="D42">
+        <v>-0.59863523071374258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7.6788657251110166</v>
+      </c>
+      <c r="B43">
+        <v>-0.80807428691653971</v>
+      </c>
+      <c r="C43">
+        <v>7.6788657251110166</v>
+      </c>
+      <c r="D43">
+        <v>7.6788657251110166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-0.68256791582517296</v>
+      </c>
+      <c r="B44">
+        <v>-4.3942336359596067E-2</v>
+      </c>
+      <c r="C44">
+        <v>-0.68256791582517296</v>
+      </c>
+      <c r="D44">
+        <v>-0.68256791582517296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="B45">
+        <v>-0.19023015670603771</v>
+      </c>
+      <c r="C45">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="D45">
+        <v>-0.9722741866133906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="B46">
+        <v>-0.19023015670603771</v>
+      </c>
+      <c r="C46">
+        <v>-0.9722741866133906</v>
+      </c>
+      <c r="D46">
+        <v>-0.9722741866133906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-0.82255494238670313</v>
+      </c>
+      <c r="B47">
+        <v>-0.119319154795091</v>
+      </c>
+      <c r="C47">
+        <v>-0.82255494238670313</v>
+      </c>
+      <c r="D47">
+        <v>-0.82255494238670313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-0.84739533275447232</v>
+      </c>
+      <c r="B48">
+        <v>-0.1141607506021495</v>
+      </c>
+      <c r="C48">
+        <v>-0.84739533275447232</v>
+      </c>
+      <c r="D48">
+        <v>-0.84739533275447232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-0.86027201724115498</v>
+      </c>
+      <c r="B49">
+        <v>1.217948991130405E-2</v>
+      </c>
+      <c r="C49">
+        <v>-0.86027201724115498</v>
+      </c>
+      <c r="D49">
+        <v>-0.86027201724115498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-0.69821943120610408</v>
+      </c>
+      <c r="B50">
+        <v>-8.5559167500576364E-2</v>
+      </c>
+      <c r="C50">
+        <v>-0.69821943120610408</v>
+      </c>
+      <c r="D50">
+        <v>-0.69821943120610408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-0.83467619269188753</v>
+      </c>
+      <c r="B51">
+        <v>-9.8439035850685433E-2</v>
+      </c>
+      <c r="C51">
+        <v>-0.83467619269188753</v>
+      </c>
+      <c r="D51">
+        <v>-0.83467619269188753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-0.94281460263594874</v>
+      </c>
+      <c r="B52">
+        <v>-0.29064484743495128</v>
+      </c>
+      <c r="C52">
+        <v>-0.94281460263594874</v>
+      </c>
+      <c r="D52">
+        <v>-0.94281460263594874</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-0.99110782642545026</v>
+      </c>
+      <c r="B53">
+        <v>-0.12163091570058809</v>
+      </c>
+      <c r="C53">
+        <v>-0.99110782642545026</v>
+      </c>
+      <c r="D53">
+        <v>-0.99110782642545026</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-0.92929690105128349</v>
+      </c>
+      <c r="B54">
+        <v>-0.1135624667740921</v>
+      </c>
+      <c r="C54">
+        <v>-0.92929690105128349</v>
+      </c>
+      <c r="D54">
+        <v>-0.92929690105128349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-0.98708837788692327</v>
+      </c>
+      <c r="B55">
+        <v>-0.17299088547477981</v>
+      </c>
+      <c r="C55">
+        <v>-0.98708837788692327</v>
+      </c>
+      <c r="D55">
+        <v>-0.98708837788692327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-0.88528837697503171</v>
+      </c>
+      <c r="B56">
+        <v>-9.78023690938747E-2</v>
+      </c>
+      <c r="C56">
+        <v>-0.88528837697503171</v>
+      </c>
+      <c r="D56">
+        <v>-0.88528837697503171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>13.50386511862772</v>
+      </c>
+      <c r="B57">
+        <v>-2.2883300179723469</v>
+      </c>
+      <c r="C57">
+        <v>13.50386511862772</v>
+      </c>
+      <c r="D57">
+        <v>13.50386511862772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-0.8125287432924666</v>
+      </c>
+      <c r="B58">
+        <v>-0.1072382877567747</v>
+      </c>
+      <c r="C58">
+        <v>-0.8125287432924666</v>
+      </c>
+      <c r="D58">
+        <v>-0.8125287432924666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-0.83830053720784137</v>
+      </c>
+      <c r="B59">
+        <v>-0.1117600251929055</v>
+      </c>
+      <c r="C59">
+        <v>-0.83830053720784137</v>
+      </c>
+      <c r="D59">
+        <v>-0.83830053720784137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>0.69721695100399628</v>
       </c>
-      <c r="C3">
+      <c r="B60">
         <v>1.838058258186712</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="C60">
+        <v>0.69721695100399628</v>
+      </c>
+      <c r="D60">
+        <v>0.69721695100399628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.62480492287698786</v>
+      </c>
+      <c r="B61">
+        <v>1.5097859260248321</v>
+      </c>
+      <c r="C61">
+        <v>0.62480492287698786</v>
+      </c>
+      <c r="D61">
+        <v>0.62480492287698786</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.49882268779837963</v>
+      </c>
+      <c r="B62">
+        <v>1.644618599168709</v>
+      </c>
+      <c r="C62">
+        <v>0.49882268779837963</v>
+      </c>
+      <c r="D62">
+        <v>0.49882268779837963</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.43599262955468721</v>
+      </c>
+      <c r="B63">
+        <v>1.781647854314085</v>
+      </c>
+      <c r="C63">
+        <v>0.43599262955468721</v>
+      </c>
+      <c r="D63">
+        <v>0.43599262955468721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.41115223918691801</v>
+      </c>
+      <c r="B64">
+        <v>1.786806258507027</v>
+      </c>
+      <c r="C64">
+        <v>0.41115223918691801</v>
+      </c>
+      <c r="D64">
+        <v>0.41115223918691801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.41508205614013199</v>
+      </c>
+      <c r="B65">
+        <v>1.637406454335852</v>
+      </c>
+      <c r="C65">
+        <v>0.41508205614013199</v>
+      </c>
+      <c r="D65">
+        <v>0.41508205614013199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.25478991072263918</v>
+      </c>
+      <c r="B66">
+        <v>1.5591224467164451</v>
+      </c>
+      <c r="C66">
+        <v>0.25478991072263918</v>
+      </c>
+      <c r="D66">
+        <v>0.25478991072263918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.11438692492456209</v>
+      </c>
+      <c r="B67">
+        <v>1.628700015462647</v>
+      </c>
+      <c r="C67">
+        <v>0.11438692492456209</v>
+      </c>
+      <c r="D67">
+        <v>0.11438692492456209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.17290044807044719</v>
+      </c>
+      <c r="B68">
+        <v>1.643910842364646</v>
+      </c>
+      <c r="C68">
+        <v>0.17290044807044719</v>
+      </c>
+      <c r="D68">
+        <v>0.17290044807044719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.14231740281257529</v>
+      </c>
+      <c r="B69">
+        <v>1.368344834274078</v>
+      </c>
+      <c r="C69">
+        <v>0.14231740281257529</v>
+      </c>
+      <c r="D69">
+        <v>0.14231740281257529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-0.51548040525566874</v>
+      </c>
+      <c r="B70">
+        <v>0.43864535372854763</v>
+      </c>
+      <c r="C70">
+        <v>-0.51548040525566874</v>
+      </c>
+      <c r="D70">
+        <v>-0.51548040525566874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-0.44352554062003657</v>
+      </c>
+      <c r="B71">
+        <v>0.30374814789967092</v>
+      </c>
+      <c r="C71">
+        <v>-0.44352554062003657</v>
+      </c>
+      <c r="D71">
+        <v>-0.44352554062003657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.4815263842514992</v>
+      </c>
+      <c r="B72">
+        <v>-0.33695158831664551</v>
+      </c>
+      <c r="C72">
+        <v>2.4815263842514992</v>
+      </c>
+      <c r="D72">
+        <v>2.4815263842514992</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-0.5742915711383012</v>
+      </c>
+      <c r="B73">
+        <v>-0.1104629305313132</v>
+      </c>
+      <c r="C73">
+        <v>-0.5742915711383012</v>
+      </c>
+      <c r="D73">
+        <v>-0.5742915711383012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-0.45388722299684231</v>
+      </c>
+      <c r="B74">
+        <v>0.45465675046749388</v>
+      </c>
+      <c r="C74">
+        <v>-0.45388722299684231</v>
+      </c>
+      <c r="D74">
+        <v>-0.45388722299684231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>-0.38074080514521103</v>
+      </c>
+      <c r="B75">
+        <v>0.85523396358241166</v>
+      </c>
+      <c r="C75">
+        <v>-0.38074080514521103</v>
+      </c>
+      <c r="D75">
+        <v>-0.38074080514521103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-0.33448438556686882</v>
+      </c>
+      <c r="B76">
+        <v>0.88006042580143296</v>
+      </c>
+      <c r="C76">
+        <v>-0.33448438556686882</v>
+      </c>
+      <c r="D76">
+        <v>-0.33448438556686882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>-0.30806456729506743</v>
+      </c>
+      <c r="B77">
+        <v>1.0610870535971579</v>
+      </c>
+      <c r="C77">
+        <v>-0.30806456729506743</v>
+      </c>
+      <c r="D77">
+        <v>-0.30806456729506743</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>-0.33136249440764542</v>
+      </c>
+      <c r="B78">
+        <v>0.83754105874509721</v>
+      </c>
+      <c r="C78">
+        <v>-0.33136249440764542</v>
+      </c>
+      <c r="D78">
+        <v>-0.33136249440764542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>-0.351418053633204</v>
+      </c>
+      <c r="B79">
+        <v>1.009322532377799</v>
+      </c>
+      <c r="C79">
+        <v>-0.351418053633204</v>
+      </c>
+      <c r="D79">
+        <v>-0.351418053633204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>-0.30929305740195301</v>
+      </c>
+      <c r="B80">
+        <v>1.1522870242412691</v>
+      </c>
+      <c r="C80">
+        <v>-0.30929305740195301</v>
+      </c>
+      <c r="D80">
+        <v>-0.30929305740195301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>14.45123597381393</v>
+      </c>
+      <c r="B81">
+        <v>-1.103631572907475</v>
+      </c>
+      <c r="C81">
+        <v>14.45123597381393</v>
+      </c>
+      <c r="D81">
+        <v>14.45123597381393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>-0.22288868017973151</v>
+      </c>
+      <c r="B82">
+        <v>1.1624809086620029</v>
+      </c>
+      <c r="C82">
+        <v>-0.22288868017973151</v>
+      </c>
+      <c r="D82">
+        <v>-0.22288868017973151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>-0.26861044855768179</v>
+      </c>
+      <c r="B83">
+        <v>1.0240570210019819</v>
+      </c>
+      <c r="C83">
+        <v>-0.26861044855768179</v>
+      </c>
+      <c r="D83">
+        <v>-0.26861044855768179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>-0.21486705552344751</v>
+      </c>
+      <c r="B84">
+        <v>0.92777630386678356</v>
+      </c>
+      <c r="C84">
+        <v>-0.21486705552344751</v>
+      </c>
+      <c r="D84">
+        <v>-0.21486705552344751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>-0.27025868751010929</v>
+      </c>
+      <c r="B85">
+        <v>0.87004610990844888</v>
+      </c>
+      <c r="C85">
+        <v>-0.27025868751010929</v>
+      </c>
+      <c r="D85">
+        <v>-0.27025868751010929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>-0.25616349110535019</v>
+      </c>
+      <c r="B86">
+        <v>0.98922911341448849</v>
+      </c>
+      <c r="C86">
+        <v>-0.25616349110535019</v>
+      </c>
+      <c r="D86">
+        <v>-0.25616349110535019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>-0.24631989284738481</v>
+      </c>
+      <c r="B87">
+        <v>0.84586594097505663</v>
+      </c>
+      <c r="C87">
+        <v>-0.24631989284738481</v>
+      </c>
+      <c r="D87">
+        <v>-0.24631989284738481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>-0.30723048988952201</v>
+      </c>
+      <c r="B88">
+        <v>1.008649558730901</v>
+      </c>
+      <c r="C88">
+        <v>-0.30723048988952201</v>
+      </c>
+      <c r="D88">
+        <v>-0.30723048988952201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.176367271672214</v>
+      </c>
+      <c r="B89">
+        <v>5.0987530440796416</v>
+      </c>
+      <c r="C89">
+        <v>1.176367271672214</v>
+      </c>
+      <c r="D89">
+        <v>1.176367271672214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.92244006876329043</v>
+      </c>
+      <c r="B90">
+        <v>4.7038036240519219</v>
+      </c>
+      <c r="C90">
+        <v>0.92244006876329043</v>
+      </c>
+      <c r="D90">
+        <v>0.92244006876329043</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.74158040855281493</v>
+      </c>
+      <c r="B91">
+        <v>4.6552892541626676</v>
+      </c>
+      <c r="C91">
+        <v>0.74158040855281493</v>
+      </c>
+      <c r="D91">
+        <v>0.74158040855281493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.75142400681078036</v>
+      </c>
+      <c r="B92">
+        <v>4.5119260817232361</v>
+      </c>
+      <c r="C92">
+        <v>0.75142400681078036</v>
+      </c>
+      <c r="D92">
+        <v>0.75142400681078036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.77784382508258176</v>
+      </c>
+      <c r="B93">
+        <v>4.6929527095189618</v>
+      </c>
+      <c r="C93">
+        <v>0.77784382508258176</v>
+      </c>
+      <c r="D93">
+        <v>0.77784382508258176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.6904788489083804</v>
+      </c>
+      <c r="B94">
+        <v>4.6724195753438842</v>
+      </c>
+      <c r="C94">
+        <v>0.6904788489083804</v>
+      </c>
+      <c r="D94">
+        <v>0.6904788489083804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.61945211738367945</v>
+      </c>
+      <c r="B95">
+        <v>4.4687470944807819</v>
+      </c>
+      <c r="C95">
+        <v>0.61945211738367945</v>
+      </c>
+      <c r="D95">
+        <v>0.61945211738367945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>7.5243701938483429</v>
+      </c>
+      <c r="B96">
+        <v>1.3412861142580319</v>
+      </c>
+      <c r="C96">
+        <v>7.5243701938483429</v>
+      </c>
+      <c r="D96">
+        <v>7.5243701938483429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.28730524767032839</v>
+      </c>
+      <c r="B97">
+        <v>4.0340635764225654</v>
+      </c>
+      <c r="C97">
+        <v>0.28730524767032839</v>
+      </c>
+      <c r="D97">
+        <v>0.28730524767032839</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.1833318236924428</v>
+      </c>
+      <c r="B98">
+        <v>3.9494528386222352</v>
+      </c>
+      <c r="C98">
+        <v>0.1833318236924428</v>
+      </c>
+      <c r="D98">
+        <v>0.1833318236924428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="B99">
+        <v>-3.4056635514926739</v>
+      </c>
+      <c r="C99">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="D99">
+        <v>14.82690946899773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.15332171274654269</v>
+      </c>
+      <c r="B100">
+        <v>3.9490701176127252</v>
+      </c>
+      <c r="C100">
+        <v>0.15332171274654269</v>
+      </c>
+      <c r="D100">
+        <v>0.15332171274654269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.1422013879744507</v>
+      </c>
+      <c r="B101">
+        <v>3.5577175877289728</v>
+      </c>
+      <c r="C101">
+        <v>0.1422013879744507</v>
+      </c>
+      <c r="D101">
+        <v>0.1422013879744507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2.6036746317250239E-2</v>
+      </c>
+      <c r="B102">
+        <v>3.4829494288203322</v>
+      </c>
+      <c r="C102">
+        <v>2.6036746317250239E-2</v>
+      </c>
+      <c r="D102">
+        <v>2.6036746317250239E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-2.517923944257359E-3</v>
+      </c>
+      <c r="B103">
+        <v>3.3181178229688908</v>
+      </c>
+      <c r="C103">
+        <v>-2.517923944257359E-3</v>
+      </c>
+      <c r="D103">
+        <v>-2.517923944257359E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3.0922090737848902</v>
+      </c>
+      <c r="B104">
+        <v>2.8914761432863938</v>
+      </c>
+      <c r="C104">
+        <v>3.0922090737848902</v>
+      </c>
+      <c r="D104">
+        <v>3.0922090737848902</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>-2.517923944257359E-3</v>
+      </c>
+      <c r="B105">
+        <v>3.3181178229688908</v>
+      </c>
+      <c r="C105">
+        <v>-2.517923944257359E-3</v>
+      </c>
+      <c r="D105">
+        <v>-2.517923944257359E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="B106">
+        <v>-3.4056635514926739</v>
+      </c>
+      <c r="C106">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="D106">
+        <v>14.82690946899773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>5.3126453347023341</v>
+      </c>
+      <c r="B107">
+        <v>1.30745328731163</v>
+      </c>
+      <c r="C107">
+        <v>5.3126453347023341</v>
+      </c>
+      <c r="D107">
+        <v>5.3126453347023341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.32210296716708769</v>
+      </c>
+      <c r="B108">
+        <v>3.3905522629018479</v>
+      </c>
+      <c r="C108">
+        <v>0.32210296716708769</v>
+      </c>
+      <c r="D108">
+        <v>0.32210296716708769</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.26997618398291567</v>
+      </c>
+      <c r="B109">
+        <v>3.3899443838874039</v>
+      </c>
+      <c r="C109">
+        <v>0.26997618398291567</v>
+      </c>
+      <c r="D109">
+        <v>0.26997618398291567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>6.8213998634994466</v>
+      </c>
+      <c r="B110">
+        <v>9.2496064818772664E-2</v>
+      </c>
+      <c r="C110">
+        <v>6.8213998634994466</v>
+      </c>
+      <c r="D110">
+        <v>6.8213998634994466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.18899712490026621</v>
+      </c>
+      <c r="B111">
+        <v>3.3609574330877492</v>
+      </c>
+      <c r="C111">
+        <v>0.18899712490026621</v>
+      </c>
+      <c r="D111">
+        <v>0.18899712490026621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3.9699937599986201</v>
+      </c>
+      <c r="B112">
+        <v>3.2118506316551212</v>
+      </c>
+      <c r="C112">
+        <v>3.9699937599986201</v>
+      </c>
+      <c r="D112">
+        <v>3.9699937599986201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9.4713877423739579</v>
+      </c>
+      <c r="B113">
+        <v>1.2881295280362579</v>
+      </c>
+      <c r="C113">
+        <v>9.4713877423739579</v>
+      </c>
+      <c r="D113">
+        <v>9.4713877423739579</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7.4664734881789228</v>
+      </c>
+      <c r="B114">
+        <v>-2.7112520090705852</v>
+      </c>
+      <c r="C114">
+        <v>7.4664734881789228</v>
+      </c>
+      <c r="D114">
+        <v>7.4664734881789228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="B115">
+        <v>-3.4056635514926739</v>
+      </c>
+      <c r="C115">
+        <v>14.82690946899773</v>
+      </c>
+      <c r="D115">
+        <v>14.82690946899773</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2.0896043222601062</v>
+      </c>
+      <c r="B116">
+        <v>2.7789839669141769</v>
+      </c>
+      <c r="C116">
+        <v>2.0896043222601062</v>
+      </c>
+      <c r="D116">
+        <v>2.0896043222601062</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>-3.7321707098973207E-2</v>
+      </c>
+      <c r="B117">
+        <v>3.311997884336765</v>
+      </c>
+      <c r="C117">
+        <v>-3.7321707098973207E-2</v>
+      </c>
+      <c r="D117">
+        <v>-3.7321707098973207E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>-1.3773825899153751</v>
       </c>
-      <c r="C4">
+      <c r="B118">
         <v>-0.51988097812204992</v>
       </c>
+      <c r="C118">
+        <v>-1.3773825899153751</v>
+      </c>
+      <c r="D118">
+        <v>-1.3773825899153751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>-1.370461710698611</v>
+      </c>
+      <c r="B119">
+        <v>-0.84533619441803642</v>
+      </c>
+      <c r="C119">
+        <v>-1.370461710698611</v>
+      </c>
+      <c r="D119">
+        <v>-1.370461710698611</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="B120">
+        <v>-0.83607382399057406</v>
+      </c>
+      <c r="C120">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="D120">
+        <v>-1.393774815329581</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="B121">
+        <v>-0.83607382399057406</v>
+      </c>
+      <c r="C121">
+        <v>-1.393774815329581</v>
+      </c>
+      <c r="D121">
+        <v>-1.393774815329581</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>-1.3440077819311489</v>
+      </c>
+      <c r="B122">
+        <v>-1.0097642112634839</v>
+      </c>
+      <c r="C122">
+        <v>-1.3440077819311489</v>
+      </c>
+      <c r="D122">
+        <v>-1.3440077819311489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>-1.3297791018543399</v>
+      </c>
+      <c r="B123">
+        <v>-0.97356619765732355</v>
+      </c>
+      <c r="C123">
+        <v>-1.3297791018543399</v>
+      </c>
+      <c r="D123">
+        <v>-1.3297791018543399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>-1.422997784767192</v>
+      </c>
+      <c r="B124">
+        <v>-1.062593921238524</v>
+      </c>
+      <c r="C124">
+        <v>-1.422997784767192</v>
+      </c>
+      <c r="D124">
+        <v>-1.422997784767192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>-1.475827157056034</v>
+      </c>
+      <c r="B125">
+        <v>-1.160527250201981</v>
+      </c>
+      <c r="C125">
+        <v>-1.475827157056034</v>
+      </c>
+      <c r="D125">
+        <v>-1.475827157056034</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>-1.4774205564885221</v>
+      </c>
+      <c r="B126">
+        <v>-1.2092519954586209</v>
+      </c>
+      <c r="C126">
+        <v>-1.4774205564885221</v>
+      </c>
+      <c r="D126">
+        <v>-1.4774205564885221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>-1.6751445871270469</v>
+      </c>
+      <c r="B127">
+        <v>-1.603060377775956</v>
+      </c>
+      <c r="C127">
+        <v>-1.6751445871270469</v>
+      </c>
+      <c r="D127">
+        <v>-1.6751445871270469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>-1.628804361348078</v>
+      </c>
+      <c r="B128">
+        <v>-1.630932022245974</v>
+      </c>
+      <c r="C128">
+        <v>-1.628804361348078</v>
+      </c>
+      <c r="D128">
+        <v>-1.628804361348078</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>-1.6524027321974579</v>
+      </c>
+      <c r="B129">
+        <v>-1.6260315382626791</v>
+      </c>
+      <c r="C129">
+        <v>-1.6524027321974579</v>
+      </c>
+      <c r="D129">
+        <v>-1.6524027321974579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>-1.5951116482582</v>
+      </c>
+      <c r="B130">
+        <v>-1.5784216722983639</v>
+      </c>
+      <c r="C130">
+        <v>-1.5951116482582</v>
+      </c>
+      <c r="D130">
+        <v>-1.5951116482582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>-1.7190262306974411</v>
+      </c>
+      <c r="B131">
+        <v>-1.576952835246846</v>
+      </c>
+      <c r="C131">
+        <v>-1.7190262306974411</v>
+      </c>
+      <c r="D131">
+        <v>-1.7190262306974411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>-1.536203449164359</v>
+      </c>
+      <c r="B132">
+        <v>-1.679921596390445</v>
+      </c>
+      <c r="C132">
+        <v>-1.536203449164359</v>
+      </c>
+      <c r="D132">
+        <v>-1.536203449164359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>-1.569306986470753</v>
+      </c>
+      <c r="B133">
+        <v>-1.5060418333359</v>
+      </c>
+      <c r="C133">
+        <v>-1.569306986470753</v>
+      </c>
+      <c r="D133">
+        <v>-1.569306986470753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>-1.744520076963322</v>
+      </c>
+      <c r="B134">
+        <v>-1.627036795890284</v>
+      </c>
+      <c r="C134">
+        <v>-1.744520076963322</v>
+      </c>
+      <c r="D134">
+        <v>-1.744520076963322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>-1.7716482810847689</v>
+      </c>
+      <c r="B135">
+        <v>-1.6317965195072639</v>
+      </c>
+      <c r="C135">
+        <v>-1.7716482810847689</v>
+      </c>
+      <c r="D135">
+        <v>-1.7716482810847689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>-1.738544743778375</v>
+      </c>
+      <c r="B136">
+        <v>-1.80567628256181</v>
+      </c>
+      <c r="C136">
+        <v>-1.738544743778375</v>
+      </c>
+      <c r="D136">
+        <v>-1.738544743778375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>-1.7277484863085</v>
+      </c>
+      <c r="B137">
+        <v>-1.5847140642030311</v>
+      </c>
+      <c r="C137">
+        <v>-1.7277484863085</v>
+      </c>
+      <c r="D137">
+        <v>-1.7277484863085</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>-1.4611384641453811</v>
+      </c>
+      <c r="B138">
+        <v>-1.539684609022008</v>
+      </c>
+      <c r="C138">
+        <v>-1.4611384641453811</v>
+      </c>
+      <c r="D138">
+        <v>-1.4611384641453811</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>-1.367804827153289</v>
+      </c>
+      <c r="B139">
+        <v>-1.4956351224164779</v>
+      </c>
+      <c r="C139">
+        <v>-1.367804827153289</v>
+      </c>
+      <c r="D139">
+        <v>-1.367804827153289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>-1.355277086336085</v>
+      </c>
+      <c r="B140">
+        <v>-1.62368302722256</v>
+      </c>
+      <c r="C140">
+        <v>-1.355277086336085</v>
+      </c>
+      <c r="D140">
+        <v>-1.355277086336085</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>-1.447639253329144</v>
+      </c>
+      <c r="B141">
+        <v>-1.694640074300332</v>
+      </c>
+      <c r="C141">
+        <v>-1.447639253329144</v>
+      </c>
+      <c r="D141">
+        <v>-1.447639253329144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>-1.4106687183227471</v>
+      </c>
+      <c r="B142">
+        <v>-1.681413221180895</v>
+      </c>
+      <c r="C142">
+        <v>-1.4106687183227471</v>
+      </c>
+      <c r="D142">
+        <v>-1.4106687183227471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>-1.4971283919281491</v>
+      </c>
+      <c r="B143">
+        <v>-1.668368642663298</v>
+      </c>
+      <c r="C143">
+        <v>-1.4971283919281491</v>
+      </c>
+      <c r="D143">
+        <v>-1.4971283919281491</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>-1.4229719311778231</v>
+      </c>
+      <c r="B144">
+        <v>-1.647063568815279</v>
+      </c>
+      <c r="C144">
+        <v>-1.4229719311778231</v>
+      </c>
+      <c r="D144">
+        <v>-1.4229719311778231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>-1.460864975398382</v>
+      </c>
+      <c r="B145">
+        <v>-1.6307051873070051</v>
+      </c>
+      <c r="C145">
+        <v>-1.460864975398382</v>
+      </c>
+      <c r="D145">
+        <v>-1.460864975398382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>-1.4376923595681019</v>
+      </c>
+      <c r="B146">
+        <v>-1.682743050389012</v>
+      </c>
+      <c r="C146">
+        <v>-1.4376923595681019</v>
+      </c>
+      <c r="D146">
+        <v>-1.4376923595681019</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>-1.216691332737766</v>
+      </c>
+      <c r="B147">
+        <v>-1.206418056032043</v>
+      </c>
+      <c r="C147">
+        <v>-1.216691332737766</v>
+      </c>
+      <c r="D147">
+        <v>-1.216691332737766</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>-1.170481022446956</v>
+      </c>
+      <c r="B148">
+        <v>-1.1568575767644289</v>
+      </c>
+      <c r="C148">
+        <v>-1.170481022446956</v>
+      </c>
+      <c r="D148">
+        <v>-1.170481022446956</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>-1.574647690636356</v>
+      </c>
+      <c r="B149">
+        <v>-1.442946397966498</v>
+      </c>
+      <c r="C149">
+        <v>-1.574647690636356</v>
+      </c>
+      <c r="D149">
+        <v>-1.574647690636356</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>-1.424928446409669</v>
+      </c>
+      <c r="B150">
+        <v>-1.372035396055552</v>
+      </c>
+      <c r="C150">
+        <v>-1.424928446409669</v>
+      </c>
+      <c r="D150">
+        <v>-1.424928446409669</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>-1.3810286516334001</v>
+      </c>
+      <c r="B151">
+        <v>-1.324952940751319</v>
+      </c>
+      <c r="C151">
+        <v>-1.3810286516334001</v>
+      </c>
+      <c r="D151">
+        <v>-1.3810286516334001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>-1.498162442672534</v>
+      </c>
+      <c r="B152">
+        <v>-1.5621982755884201</v>
+      </c>
+      <c r="C152">
+        <v>-1.498162442672534</v>
+      </c>
+      <c r="D152">
+        <v>-1.498162442672534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>-1.3633352641508421</v>
+      </c>
+      <c r="B153">
+        <v>-1.3560239993166061</v>
+      </c>
+      <c r="C153">
+        <v>-1.3633352641508421</v>
+      </c>
+      <c r="D153">
+        <v>-1.3633352641508421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>-1.249056014914844</v>
+      </c>
+      <c r="B154">
+        <v>-1.295867723358419</v>
+      </c>
+      <c r="C154">
+        <v>-1.249056014914844</v>
+      </c>
+      <c r="D154">
+        <v>-1.249056014914844</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>-1.321379280324678</v>
+      </c>
+      <c r="B155">
+        <v>-1.013878247285811</v>
+      </c>
+      <c r="C155">
+        <v>-1.321379280324678</v>
+      </c>
+      <c r="D155">
+        <v>-1.321379280324678</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>-1.2707156578558849</v>
+      </c>
+      <c r="B156">
+        <v>-0.85609894568219358</v>
+      </c>
+      <c r="C156">
+        <v>-1.2707156578558849</v>
+      </c>
+      <c r="D156">
+        <v>-1.2707156578558849</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="B157">
+        <v>-0.83101626504354775</v>
+      </c>
+      <c r="C157">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="D157">
+        <v>-1.1593267636975499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="B158">
+        <v>-0.83101626504354775</v>
+      </c>
+      <c r="C158">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="D158">
+        <v>-1.1593267636975499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="B159">
+        <v>-0.83101626504354775</v>
+      </c>
+      <c r="C159">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="D159">
+        <v>-1.1593267636975499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>-1.132198559576103</v>
+      </c>
+      <c r="B160">
+        <v>-0.8262565414265679</v>
+      </c>
+      <c r="C160">
+        <v>-1.132198559576103</v>
+      </c>
+      <c r="D160">
+        <v>-1.132198559576103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="B161">
+        <v>-0.83101626504354775</v>
+      </c>
+      <c r="C161">
+        <v>-1.1593267636975499</v>
+      </c>
+      <c r="D161">
+        <v>-1.1593267636975499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="B162">
+        <v>-0.96100448281159112</v>
+      </c>
+      <c r="C162">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="D162">
+        <v>-1.1298596069913449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="B163">
+        <v>-0.96100448281159112</v>
+      </c>
+      <c r="C163">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="D163">
+        <v>-1.1298596069913449</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="B164">
+        <v>-0.96100448281159112</v>
+      </c>
+      <c r="C164">
+        <v>-1.1298596069913449</v>
+      </c>
+      <c r="D164">
+        <v>-1.1298596069913449</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>-1.1037138326012641</v>
+      </c>
+      <c r="B165">
+        <v>-1.1212191626398651</v>
+      </c>
+      <c r="C165">
+        <v>-1.1037138326012641</v>
+      </c>
+      <c r="D165">
+        <v>-1.1037138326012641</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>-1.2070515598973339</v>
+      </c>
+      <c r="B166">
+        <v>-1.2996884698097151</v>
+      </c>
+      <c r="C166">
+        <v>-1.2070515598973339</v>
+      </c>
+      <c r="D166">
+        <v>-1.2070515598973339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>-1.2424340126733771</v>
+      </c>
+      <c r="B167">
+        <v>-1.4512058340210361</v>
+      </c>
+      <c r="C167">
+        <v>-1.2424340126733771</v>
+      </c>
+      <c r="D167">
+        <v>-1.2424340126733771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>-1.214623677650428</v>
+      </c>
+      <c r="B168">
+        <v>-1.2606514889729039</v>
+      </c>
+      <c r="C168">
+        <v>-1.214623677650428</v>
+      </c>
+      <c r="D168">
+        <v>-1.214623677650428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>-1.3054177454375111</v>
+      </c>
+      <c r="B169">
+        <v>-1.35514091571363</v>
+      </c>
+      <c r="C169">
+        <v>-1.3054177454375111</v>
+      </c>
+      <c r="D169">
+        <v>-1.3054177454375111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>-1.282104640806542</v>
+      </c>
+      <c r="B170">
+        <v>-1.3644032861410931</v>
+      </c>
+      <c r="C170">
+        <v>-1.282104640806542</v>
+      </c>
+      <c r="D170">
+        <v>-1.282104640806542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>-1.3054177454375111</v>
+      </c>
+      <c r="B171">
+        <v>-1.35514091571363</v>
+      </c>
+      <c r="C171">
+        <v>-1.3054177454375111</v>
+      </c>
+      <c r="D171">
+        <v>-1.3054177454375111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>-1.2717429584297359</v>
+      </c>
+      <c r="B172">
+        <v>-1.5153118887089161</v>
+      </c>
+      <c r="C172">
+        <v>-1.2717429584297359</v>
+      </c>
+      <c r="D172">
+        <v>-1.2717429584297359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>-1.295056063060706</v>
+      </c>
+      <c r="B173">
+        <v>-1.5060495182814539</v>
+      </c>
+      <c r="C173">
+        <v>-1.295056063060706</v>
+      </c>
+      <c r="D173">
+        <v>-1.295056063060706</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>-1.256407584658648</v>
+      </c>
+      <c r="B174">
+        <v>-1.627868021358776</v>
+      </c>
+      <c r="C174">
+        <v>-1.256407584658648</v>
+      </c>
+      <c r="D174">
+        <v>-1.256407584658648</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>-1.402608100783852</v>
+      </c>
+      <c r="B175">
+        <v>-1.7102723577656189</v>
+      </c>
+      <c r="C175">
+        <v>-1.402608100783852</v>
+      </c>
+      <c r="D175">
+        <v>-1.402608100783852</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>